--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_429__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_429__Reeval_LHS_Modell_1.2.xlsx
@@ -5879,13 +5879,13 @@
                   <c:v>70.03065490722656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.03434753417969</c:v>
+                  <c:v>47.03435516357422</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.09634017944336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.09479904174805</c:v>
+                  <c:v>63.09479522705078</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>74.09165191650391</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>63.0960578918457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.82398986816406</c:v>
+                  <c:v>24.82398796081543</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>40.74143218994141</c:v>
@@ -5909,7 +5909,7 @@
                   <c:v>52.50713729858398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.03662490844727</c:v>
+                  <c:v>49.03662872314453</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>63.08504486083984</c:v>
@@ -5918,13 +5918,13 @@
                   <c:v>63.0960578918457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.74985122680664</c:v>
+                  <c:v>37.74984741210938</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>47.70758819580078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.77011108398438</c:v>
+                  <c:v>60.77010345458984</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.04145812988281</c:v>
@@ -5960,7 +5960,7 @@
                   <c:v>69.39915466308594</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43.53718185424805</c:v>
+                  <c:v>43.53717422485352</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>38.18791961669922</c:v>
@@ -5990,7 +5990,7 @@
                   <c:v>41.10950088500977</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>54.58052444458008</c:v>
+                  <c:v>54.58051300048828</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>58.16847229003906</c:v>
@@ -6017,13 +6017,13 @@
                   <c:v>60.83980560302734</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.3217658996582</c:v>
+                  <c:v>37.32176971435547</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>63.03421020507812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.12141799926758</c:v>
+                  <c:v>42.12142181396484</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>35.10517120361328</c:v>
@@ -6032,7 +6032,7 @@
                   <c:v>74.22850799560547</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.26567459106445</c:v>
+                  <c:v>40.26567840576172</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43.66341400146484</c:v>
@@ -6062,10 +6062,10 @@
                   <c:v>63.09701919555664</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>23.20312309265137</c:v>
+                  <c:v>23.20312690734863</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>47.50445938110352</c:v>
+                  <c:v>47.50447082519531</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38.11539840698242</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>63.09685516357422</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>54.16294097900391</c:v>
+                  <c:v>54.16293334960938</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>69.65919494628906</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>74.32331848144531</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37.33365249633789</c:v>
+                  <c:v>37.33364868164062</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>40.23484802246094</c:v>
@@ -6113,7 +6113,7 @@
                   <c:v>63.09606170654297</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43.83953475952148</c:v>
+                  <c:v>43.83953094482422</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>74.29180145263672</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>65.37240600585938</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.0106029510498</c:v>
+                  <c:v>30.01059913635254</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>63.0960578918457</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>37.33509826660156</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>63.72377777099609</c:v>
+                  <c:v>63.72378540039062</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>60.57809448242188</c:v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.03434753417969</v>
+        <v>47.03435516357422</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>63.09479904174805</v>
+        <v>63.09479522705078</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>94.1598</v>
       </c>
       <c r="F10">
-        <v>24.82398986816406</v>
+        <v>24.82398796081543</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>49.03662490844727</v>
+        <v>49.03662872314453</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>37.74985122680664</v>
+        <v>37.74984741210938</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>53.0182</v>
       </c>
       <c r="F19">
-        <v>60.77011108398438</v>
+        <v>60.77010345458984</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>43.53718185424805</v>
+        <v>43.53717422485352</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>54.58052444458008</v>
+        <v>54.58051300048828</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>37.3217658996582</v>
+        <v>37.32176971435547</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>42.12141799926758</v>
+        <v>42.12142181396484</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>92.267</v>
       </c>
       <c r="F55">
-        <v>40.26567459106445</v>
+        <v>40.26567840576172</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>23.20312309265137</v>
+        <v>23.20312690734863</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>47.50445938110352</v>
+        <v>47.50447082519531</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>54.16294097900391</v>
+        <v>54.16293334960938</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>37.33365249633789</v>
+        <v>37.33364868164062</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>43.83953475952148</v>
+        <v>43.83953094482422</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>30.0106029510498</v>
+        <v>30.01059913635254</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>63.72377777099609</v>
+        <v>63.72378540039062</v>
       </c>
     </row>
     <row r="96" spans="1:6">
